--- a/比特直播课/比特直播课笔记/笔记-数据结构/2024_10_16 2.链表(4)-双链表.xlsx
+++ b/比特直播课/比特直播课笔记/笔记-数据结构/2024_10_16 2.链表(4)-双链表.xlsx
@@ -382,6 +382,82 @@
         <a:xfrm>
           <a:off x="3248025" y="26155650"/>
           <a:ext cx="4247619" cy="3666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>2245907</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>46737</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="39404925"/>
+          <a:ext cx="15942857" cy="7104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>540164</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>46546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="30165675"/>
+          <a:ext cx="22085714" cy="8628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -682,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="N133:X141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="S119" sqref="S119"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="X231" sqref="X231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
